--- a/doors_detection_long_term/scripts/results/yolov5_ap_real_data_different_condition.xlsx
+++ b/doors_detection_long_term/scripts/results/yolov5_ap_real_data_different_condition.xlsx
@@ -526,22 +526,22 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.2868298449001461</t>
+          <t>0.2776890568450425</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>276</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>81</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -581,22 +581,22 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.24569160732217213</t>
+          <t>0.22970245877577314</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>246</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>69</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>37</t>
         </is>
       </c>
     </row>
@@ -636,22 +636,22 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.002631578947368421</t>
+          <t>0.0017913121361397225</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>203</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -691,22 +691,22 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.28880294084810587</t>
+          <t>0.24368743385724936</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>317</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>111</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>67</t>
         </is>
       </c>
     </row>
@@ -746,22 +746,22 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.003148723257418909</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>276</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -801,22 +801,22 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0.021333333333333333</t>
+          <t>0.03443328550932568</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>246</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>203</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -911,22 +911,22 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.08287545787545787</t>
+          <t>0.0792456754601865</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>317</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>26</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -966,22 +966,22 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0.2559684817749333</t>
+          <t>0.26992999070481327</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>276</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>91</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>24</t>
         </is>
       </c>
     </row>
@@ -1021,22 +1021,22 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.11087179487179487</t>
+          <t>0.11193994014115961</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>246</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>37</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -1076,22 +1076,22 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0.026315789473684213</t>
+          <t>0.049826849395814915</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>203</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1131,22 +1131,22 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>0.38186206889161634</t>
+          <t>0.3583867694944558</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>317</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>130</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>34</t>
         </is>
       </c>
     </row>
@@ -1186,22 +1186,22 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0.4758076379752449</t>
+          <t>0.50484955172245</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>276</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>142</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -1241,22 +1241,22 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>0.4197035121088645</t>
+          <t>0.41493163060792576</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>246</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>108</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>23</t>
         </is>
       </c>
     </row>
@@ -1296,22 +1296,22 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>0.6253409922527576</t>
+          <t>0.6128116316186831</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>276</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>174</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -1351,22 +1351,22 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>0.4745086812565608</t>
+          <t>0.4728138033565863</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>246</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>118</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -1406,22 +1406,22 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>0.6679683512408499</t>
+          <t>0.6530918632792478</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>276</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>185</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -1461,22 +1461,22 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>0.5023464019851118</t>
+          <t>0.49540262792445544</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>246</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>123</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -1516,22 +1516,22 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>0.685909956676517</t>
+          <t>0.6797469621951533</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>276</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>190</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -1571,22 +1571,22 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>0.5314977180921392</t>
+          <t>0.5146756852151981</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>246</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>130</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -1626,22 +1626,22 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>0.39373061586176333</t>
+          <t>0.4312286429760636</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>276</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -1681,22 +1681,22 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>0.11123211951447246</t>
+          <t>0.17641931099737376</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>246</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>48</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -1736,22 +1736,22 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>0.44402616902616915</t>
+          <t>0.4860667567504148</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>276</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>139</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -1791,22 +1791,22 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>0.23902328042328044</t>
+          <t>0.2524410866763284</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>246</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>64</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -1846,22 +1846,22 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>0.572322598333504</t>
+          <t>0.5950859755728933</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>276</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>166</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -1901,22 +1901,22 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>0.2867368421052632</t>
+          <t>0.2953550027579571</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>246</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>73</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1956,22 +1956,22 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>0.5695302095839223</t>
+          <t>0.5817793748202055</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>276</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>166</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -2011,22 +2011,22 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>0.3278061054579094</t>
+          <t>0.3446870820421635</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>246</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>88</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -2066,22 +2066,22 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>0.555985888739172</t>
+          <t>0.5710442514207944</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>276</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>159</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -2121,22 +2121,22 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>0.39941412740350324</t>
+          <t>0.39947352315776047</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>246</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -2176,22 +2176,22 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>0.6600435971196802</t>
+          <t>0.6419567329191704</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>276</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>182</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -2231,22 +2231,22 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0.4270206027810731</t>
+          <t>0.42621579775305224</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>246</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>107</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -2286,22 +2286,22 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>0.6584064471250252</t>
+          <t>0.6649764495332745</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>276</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>189</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -2341,22 +2341,22 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>0.5325518161641973</t>
+          <t>0.5139542237172309</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>246</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>130</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -2396,22 +2396,22 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>0.6485532108185426</t>
+          <t>0.6566468185885008</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>276</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>186</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -2451,22 +2451,22 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>0.5233923296515879</t>
+          <t>0.5077501600026947</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>246</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>128</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>18</t>
         </is>
       </c>
     </row>
@@ -2506,22 +2506,22 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>0.17855906344109607</t>
+          <t>0.20118061512960164</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>203</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>48</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -2561,22 +2561,22 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>0.4296352018026393</t>
+          <t>0.39006472848880386</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>317</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>130</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -2616,22 +2616,22 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>0.41535372474459425</t>
+          <t>0.4431028838990639</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>203</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>99</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -2671,22 +2671,22 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>0.4198847306466434</t>
+          <t>0.4141258155254508</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>317</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>141</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -2726,22 +2726,22 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>0.5706273132056262</t>
+          <t>0.5444969222062553</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>203</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>118</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -2781,22 +2781,22 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>0.6332135341695981</t>
+          <t>0.5955142220744115</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>317</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>196</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -2836,22 +2836,22 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>0.42720627045093973</t>
+          <t>0.4631327386180656</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>203</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -2891,22 +2891,22 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>0.5683821260497226</t>
+          <t>0.5674118866907228</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>317</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>199</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>32</t>
         </is>
       </c>
     </row>
@@ -2946,22 +2946,22 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>0.17054478301015696</t>
+          <t>0.18279740632944919</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>203</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>43</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -3001,22 +3001,22 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>0.16972726654424264</t>
+          <t>0.15953609108805852</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>317</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>52</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -3056,22 +3056,22 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>0.20433518005540166</t>
+          <t>0.2562000107371447</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>203</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>66</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>28</t>
         </is>
       </c>
     </row>
@@ -3111,22 +3111,22 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>0.29716997745843904</t>
+          <t>0.2569927424631922</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>317</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>88</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -3166,22 +3166,22 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>0.3897393703557137</t>
+          <t>0.41305334348916883</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>203</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>93</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -3221,22 +3221,22 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>0.3832816120050158</t>
+          <t>0.39940044789337953</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>317</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>134</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -3276,22 +3276,22 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>0.42563076966009905</t>
+          <t>0.4372370177357907</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>203</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>94</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -3331,22 +3331,22 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>0.4117855516452123</t>
+          <t>0.3998230456968778</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>317</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>136</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>18</t>
         </is>
       </c>
     </row>
@@ -3386,22 +3386,22 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>0.3013891854382407</t>
+          <t>0.3175080064170875</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>203</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>71</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -3441,22 +3441,22 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>0.46152304890009793</t>
+          <t>0.41859253193443957</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>317</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>137</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -3496,22 +3496,22 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>0.4042777299853815</t>
+          <t>0.4076000227844297</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>203</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>93</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -3551,22 +3551,22 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>0.5389625485821861</t>
+          <t>0.47282261097876255</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>317</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>172</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>32</t>
         </is>
       </c>
     </row>
@@ -3606,22 +3606,22 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>0.5426224521561833</t>
+          <t>0.517404007266209</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>203</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>110</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -3661,22 +3661,22 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>0.6031370955039451</t>
+          <t>0.5847390206232089</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>317</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>188</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -3716,22 +3716,22 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>0.4662995622534181</t>
+          <t>0.47660515437216666</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>203</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>106</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>27</t>
         </is>
       </c>
     </row>
@@ -3771,22 +3771,22 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>0.6149895325485157</t>
+          <t>0.5559764904071921</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>317</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>187</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>19</t>
         </is>
       </c>
     </row>

--- a/doors_detection_long_term/scripts/results/yolov5_ap_real_data_different_condition.xlsx
+++ b/doors_detection_long_term/scripts/results/yolov5_ap_real_data_different_condition.xlsx
@@ -526,22 +526,22 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.2776890568450425</t>
+          <t>0.2124397206132166</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>126</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -581,22 +581,22 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.22970245877577314</t>
+          <t>0.21165546244343134</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>137</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>78</t>
         </is>
       </c>
     </row>
@@ -636,22 +636,22 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.0017913121361397225</t>
+          <t>0.004747861225178122</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -691,22 +691,22 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.24368743385724936</t>
+          <t>0.23407033353650641</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>218</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>121</t>
         </is>
       </c>
     </row>
@@ -746,22 +746,22 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.003148723257418909</t>
+          <t>0.004999285584391968</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -801,22 +801,22 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0.03443328550932568</t>
+          <t>0.03575909789502023</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
           <t>12</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>5</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -871,7 +871,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -911,22 +911,22 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.0792456754601865</t>
+          <t>0.10030571884979571</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>72</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -966,22 +966,22 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0.26992999070481327</t>
+          <t>0.23351590765865776</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>156</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>50</t>
         </is>
       </c>
     </row>
@@ -1021,22 +1021,22 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.11193994014115961</t>
+          <t>0.14404837507680068</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>91</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>38</t>
         </is>
       </c>
     </row>
@@ -1076,22 +1076,22 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0.049826849395814915</t>
+          <t>0.025818675420124698</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -1131,22 +1131,22 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>0.3583867694944558</t>
+          <t>0.3493451797292766</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>270</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>77</t>
         </is>
       </c>
     </row>
@@ -1186,22 +1186,22 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0.50484955172245</t>
+          <t>0.44603923875790574</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>255</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -1241,22 +1241,22 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>0.41493163060792576</t>
+          <t>0.36025022146594804</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>196</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>42</t>
         </is>
       </c>
     </row>
@@ -1296,22 +1296,22 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>0.6128116316186831</t>
+          <t>0.5974115985642469</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>346</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>28</t>
         </is>
       </c>
     </row>
@@ -1351,22 +1351,22 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>0.4728138033565863</t>
+          <t>0.4325412718895102</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>229</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>26</t>
         </is>
       </c>
     </row>
@@ -1406,22 +1406,22 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>0.6530918632792478</t>
+          <t>0.6388953544115901</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>370</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -1461,22 +1461,22 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>0.49540262792445544</t>
+          <t>0.522052983442539</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>273</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -1516,22 +1516,22 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>0.6797469621951533</t>
+          <t>0.6286699335624323</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>359</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -1571,22 +1571,22 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>0.5146756852151981</t>
+          <t>0.4737208729307357</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>251</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>34</t>
         </is>
       </c>
     </row>
@@ -1626,22 +1626,22 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>0.4312286429760636</t>
+          <t>0.3761259863880601</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>217</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -1681,22 +1681,22 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>0.17641931099737376</t>
+          <t>0.1791074418641283</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>29</t>
         </is>
       </c>
     </row>
@@ -1736,22 +1736,22 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>0.4860667567504148</t>
+          <t>0.4619234554555913</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>269</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -1791,22 +1791,22 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>0.2524410866763284</t>
+          <t>0.25566437796853453</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>136</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -1846,22 +1846,22 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>0.5950859755728933</t>
+          <t>0.5664433682694571</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>322</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -1901,22 +1901,22 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>0.2953550027579571</t>
+          <t>0.285939019664502</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>150</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>18</t>
         </is>
       </c>
     </row>
@@ -1956,22 +1956,22 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>0.5817793748202055</t>
+          <t>0.5733711451816997</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>332</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>23</t>
         </is>
       </c>
     </row>
@@ -2011,22 +2011,22 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>0.3446870820421635</t>
+          <t>0.3369797025211402</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>177</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -2066,22 +2066,22 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>0.5710442514207944</t>
+          <t>0.5275341069126437</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>301</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -2121,22 +2121,22 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>0.39947352315776047</t>
+          <t>0.35597799354601684</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>188</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -2176,22 +2176,22 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>0.6419567329191704</t>
+          <t>0.6071628434989031</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>351</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>32</t>
         </is>
       </c>
     </row>
@@ -2231,22 +2231,22 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0.42621579775305224</t>
+          <t>0.4032004293551432</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>217</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>28</t>
         </is>
       </c>
     </row>
@@ -2286,22 +2286,22 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>0.6649764495332745</t>
+          <t>0.6372356217273435</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>367</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -2341,22 +2341,22 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>0.5139542237172309</t>
+          <t>0.4660820409822054</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>253</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>38</t>
         </is>
       </c>
     </row>
@@ -2396,22 +2396,22 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>0.6566468185885008</t>
+          <t>0.634186303804678</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>365</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -2451,22 +2451,22 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>0.5077501600026947</t>
+          <t>0.509573615898809</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>269</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -2506,22 +2506,22 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>0.20118061512960164</t>
+          <t>0.21587895715576008</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>106</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>27</t>
         </is>
       </c>
     </row>
@@ -2561,22 +2561,22 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>0.39006472848880386</t>
+          <t>0.39150477985932697</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>272</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>34</t>
         </is>
       </c>
     </row>
@@ -2616,22 +2616,22 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>0.4431028838990639</t>
+          <t>0.43228618753141623</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>187</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>32</t>
         </is>
       </c>
     </row>
@@ -2671,22 +2671,22 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>0.4141258155254508</t>
+          <t>0.4049885143515042</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>280</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>32</t>
         </is>
       </c>
     </row>
@@ -2726,22 +2726,22 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>0.5444969222062553</t>
+          <t>0.5242666331946926</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>233</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>32</t>
         </is>
       </c>
     </row>
@@ -2781,22 +2781,22 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>0.5955142220744115</t>
+          <t>0.5994558982535606</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>400</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>34</t>
         </is>
       </c>
     </row>
@@ -2836,22 +2836,22 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>0.4631327386180656</t>
+          <t>0.45270132034179733</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>193</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>27</t>
         </is>
       </c>
     </row>
@@ -2891,22 +2891,22 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>0.5674118866907228</t>
+          <t>0.56515329912206</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>399</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>60</t>
         </is>
       </c>
     </row>
@@ -2946,22 +2946,22 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>0.18279740632944919</t>
+          <t>0.19561020202964702</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>97</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>31</t>
         </is>
       </c>
     </row>
@@ -3001,22 +3001,22 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>0.15953609108805852</t>
+          <t>0.1554027618058728</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>102</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -3056,22 +3056,22 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>0.2562000107371447</t>
+          <t>0.24153195920437032</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>124</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>53</t>
         </is>
       </c>
     </row>
@@ -3111,22 +3111,22 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>0.2569927424631922</t>
+          <t>0.2573653312733245</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>182</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>29</t>
         </is>
       </c>
     </row>
@@ -3166,22 +3166,22 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>0.41305334348916883</t>
+          <t>0.38145552689193285</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>171</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>43</t>
         </is>
       </c>
     </row>
@@ -3221,22 +3221,22 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>0.39940044789337953</t>
+          <t>0.37996256008749235</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>270</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>38</t>
         </is>
       </c>
     </row>
@@ -3276,22 +3276,22 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>0.4372370177357907</t>
+          <t>0.4363287843279947</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>189</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -3331,22 +3331,22 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>0.3998230456968778</t>
+          <t>0.43367637337973514</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>296</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -3386,22 +3386,22 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>0.3175080064170875</t>
+          <t>0.3093473276846624</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>140</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>32</t>
         </is>
       </c>
     </row>
@@ -3441,22 +3441,22 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>0.41859253193443957</t>
+          <t>0.4065122059626099</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>272</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -3496,22 +3496,22 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>0.4076000227844297</t>
+          <t>0.3809515047368145</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>171</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>35</t>
         </is>
       </c>
     </row>
@@ -3551,22 +3551,22 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>0.47282261097876255</t>
+          <t>0.4721542431431221</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>347</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>64</t>
         </is>
       </c>
     </row>
@@ -3606,22 +3606,22 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>0.517404007266209</t>
+          <t>0.5110089913464374</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>221</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>28</t>
         </is>
       </c>
     </row>
@@ -3661,22 +3661,22 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>0.5847390206232089</t>
+          <t>0.5729917092278715</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>382</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>27</t>
         </is>
       </c>
     </row>
@@ -3716,22 +3716,22 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>0.47660515437216666</t>
+          <t>0.4497537123116271</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>205</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>44</t>
         </is>
       </c>
     </row>
@@ -3771,22 +3771,22 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>0.5559764904071921</t>
+          <t>0.6045127059729104</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>409</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>36</t>
         </is>
       </c>
     </row>
